--- a/CA/data/myDataSmall.xlsx
+++ b/CA/data/myDataSmall.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iadt-my.sharepoint.com/personal/n00202054_iadt_ie/Documents/CreativeCoding2/CA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{3ED96E7F-4336-4E15-83CF-7C133AE91120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D5AE4C-4876-4D82-918A-981E4C4F3EC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3A5EDF-DFBF-451A-A4E8-E227C96DAD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="myData" sheetId="1" r:id="rId1"/>
+    <sheet name="myDataSmall" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myData!$P$1:$Q$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myDataSmall!$P$1:$Q$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -995,7 +995,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:R14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CA/data/myDataSmall.xlsx
+++ b/CA/data/myDataSmall.xlsx
@@ -1,41 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iadt-my.sharepoint.com/personal/n00202054_iadt_ie/Documents/CreativeCoding2/CA/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\OneDrive - Dun Laoghaire Institute of Art, Design and Technology\CreativeCoding2\CA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3A5EDF-DFBF-451A-A4E8-E227C96DAD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6022488C-3B13-4F26-B0D0-2AAC2D07FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="4380" windowWidth="28755" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="myDataSmall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myDataSmall!$P$1:$Q$65</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Rank</t>
   </si>
@@ -46,12 +31,21 @@
     <t>QualityofLifeIndex</t>
   </si>
   <si>
+    <t>SafetyIndex</t>
+  </si>
+  <si>
+    <t>PollIndex</t>
+  </si>
+  <si>
+    <t>PollutionIndex</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>PurchasingPowerIndex</t>
   </si>
   <si>
-    <t>SafetyIndex</t>
-  </si>
-  <si>
     <t>HealthCareIndex</t>
   </si>
   <si>
@@ -64,18 +58,9 @@
     <t>TrafficCommuteTimeIndex</t>
   </si>
   <si>
-    <t>PollutionIndex</t>
-  </si>
-  <si>
     <t>ClimateIndex</t>
   </si>
   <si>
-    <t>PollIndex</t>
-  </si>
-  <si>
-    <t>continent</t>
-  </si>
-  <si>
     <t>colour</t>
   </si>
   <si>
@@ -85,79 +70,70 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>#7172ad</t>
+  </si>
+  <si>
     <t>europe</t>
   </si>
   <si>
-    <t>#7172ad</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>america</t>
   </si>
   <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>#509ee3</t>
   </si>
   <si>
-    <t>asia</t>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>middleEast</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
   <si>
     <t>#ef8c8c</t>
   </si>
   <si>
-    <t>africa</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>#9cc177</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00FF00	</t>
-  </si>
-  <si>
-    <t>middleEast</t>
-  </si>
-  <si>
-    <t>#FF0000</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>legendColour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,20 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,49 +985,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
       </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
       <c r="P1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1068,50 +1032,43 @@
         <v>195.27</v>
       </c>
       <c r="D2">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="E2">
+        <v>51.05</v>
+      </c>
+      <c r="F2">
         <v>19.59</v>
       </c>
-      <c r="E2">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F3" si="0">SUM(C2:E2)</f>
+      <c r="G2">
         <v>293.18</v>
       </c>
-      <c r="H2">
-        <v>51.05</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
         <v>118.44</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>74.849999999999994</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>123.35</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>8.2899999999999991</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>28.5</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>80.209999999999994</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1122,459 +1079,407 @@
         <v>192.36</v>
       </c>
       <c r="D3">
+        <v>73.44</v>
+      </c>
+      <c r="E3">
+        <v>47.69</v>
+      </c>
+      <c r="F3">
         <v>20.97</v>
       </c>
-      <c r="E3">
-        <v>73.44</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
+      <c r="G3">
         <v>286.77</v>
       </c>
-      <c r="H3">
-        <v>47.69</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>99.45</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>80.069999999999993</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>84.12</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>6.78</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>28.52</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>81.8</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>173.68</v>
       </c>
       <c r="D4">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="E4">
+        <v>26.87</v>
+      </c>
+      <c r="F4">
         <v>37.21</v>
       </c>
-      <c r="E4">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="F4">
-        <f>SUM(C4:E4)</f>
-        <v>290.90000000000003</v>
-      </c>
-      <c r="H4">
-        <v>26.87</v>
-      </c>
-      <c r="I4">
+      <c r="G4">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="K4">
         <v>84.24</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>58.23</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>49.42</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>4.59</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>22.76</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>67.22</v>
       </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
+      <c r="R4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>160.38</v>
       </c>
       <c r="D5">
+        <v>57.05</v>
+      </c>
+      <c r="E5">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="F5">
         <v>28.76</v>
       </c>
-      <c r="E5">
-        <v>57.05</v>
-      </c>
-      <c r="F5">
-        <f>SUM(C5:E5)</f>
+      <c r="G5">
         <v>246.19</v>
       </c>
-      <c r="H5">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>87.98</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>71.31</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>70.22</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>7.52</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>33.61</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>55.98</v>
       </c>
-      <c r="P5" t="s">
-        <v>19</v>
-      </c>
       <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
         <v>24</v>
       </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>150.81</v>
       </c>
       <c r="D6">
+        <v>61.35</v>
+      </c>
+      <c r="E6">
+        <v>30.56</v>
+      </c>
+      <c r="F6">
         <v>32.72</v>
       </c>
-      <c r="E6">
-        <v>61.35</v>
-      </c>
-      <c r="F6">
-        <f>SUM(C6:E6)</f>
+      <c r="G6">
         <v>244.88</v>
       </c>
-      <c r="H6">
-        <v>30.56</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>51.65</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>62.43</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>48.45</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>8.1300000000000008</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>31.21</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>74.7</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" t="s">
-        <v>26</v>
+      <c r="R6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>109.5</v>
       </c>
       <c r="D7">
+        <v>59.18</v>
+      </c>
+      <c r="E7">
+        <v>12.34</v>
+      </c>
+      <c r="F7">
         <v>81.02</v>
       </c>
-      <c r="E7">
-        <v>59.18</v>
-      </c>
-      <c r="F7">
-        <f>SUM(C7:E7)</f>
+      <c r="G7">
         <v>249.7</v>
       </c>
-      <c r="H7">
-        <v>12.34</v>
-      </c>
-      <c r="I7">
+      <c r="K7">
         <v>44.18</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>45.56</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>67.84</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>13.11</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>29.1</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>97.44</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
+      <c r="R7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>108.48</v>
       </c>
       <c r="D8">
+        <v>41.59</v>
+      </c>
+      <c r="E8">
+        <v>22.33</v>
+      </c>
+      <c r="F8">
         <v>44.79</v>
       </c>
-      <c r="E8">
-        <v>41.59</v>
-      </c>
-      <c r="F8">
-        <f>SUM(C8:E8)</f>
+      <c r="G8">
         <v>194.86</v>
       </c>
-      <c r="H8">
-        <v>22.33</v>
-      </c>
-      <c r="I8">
+      <c r="K8">
         <v>31.78</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>45.57</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>30.89</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>16.690000000000001</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>30.15</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>64.37</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>103.54</v>
       </c>
       <c r="D9">
+        <v>42.29</v>
+      </c>
+      <c r="E9">
+        <v>15.88</v>
+      </c>
+      <c r="F9">
         <v>62.98</v>
       </c>
-      <c r="E9">
-        <v>42.29</v>
-      </c>
-      <c r="F9">
-        <f>SUM(C9:E9)</f>
+      <c r="G9">
         <v>208.81</v>
       </c>
-      <c r="H9">
-        <v>15.88</v>
-      </c>
-      <c r="I9">
+      <c r="K9">
         <v>28.85</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>67.19</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>26.72</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>16.89</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>47.8</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>88.3</v>
       </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>98.42</v>
       </c>
       <c r="D10">
+        <v>78.08</v>
+      </c>
+      <c r="E10">
+        <v>14.8</v>
+      </c>
+      <c r="F10">
         <v>67.569999999999993</v>
       </c>
-      <c r="E10">
-        <v>78.08</v>
-      </c>
-      <c r="F10">
-        <f>SUM(C10:E10)</f>
+      <c r="G10">
         <v>244.07</v>
       </c>
-      <c r="H10">
-        <v>14.8</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
         <v>65.739999999999995</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>66.34</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>80.709999999999994</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>46.93</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>42.56</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>83.64</v>
       </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>52.44</v>
       </c>
       <c r="D11">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="E11">
+        <v>11.32</v>
+      </c>
+      <c r="F11">
         <v>88.32</v>
       </c>
-      <c r="E11">
-        <v>36.159999999999997</v>
-      </c>
-      <c r="F11">
-        <f>SUM(C11:E11)</f>
+      <c r="G11">
         <v>176.92</v>
       </c>
-      <c r="H11">
-        <v>11.32</v>
-      </c>
-      <c r="I11">
+      <c r="K11">
         <v>9.34</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>48.49</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>30.49</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>16.11</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>61.97</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>60.75</v>
       </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="P1:Q88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CA/data/myDataSmall.xlsx
+++ b/CA/data/myDataSmall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\OneDrive - Dun Laoghaire Institute of Art, Design and Technology\CreativeCoding2\CA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iadt-my.sharepoint.com/personal/n00202054_iadt_ie/Documents/CreativeCoding2/CA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6022488C-3B13-4F26-B0D0-2AAC2D07FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BFD630-8434-4F03-9A7A-2D6239F10C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4380" windowWidth="28755" windowHeight="15285"/>
+    <workbookView xWindow="-34935" yWindow="3525" windowWidth="28755" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="myDataSmall" sheetId="1" r:id="rId1"/>
